--- a/outputs-HGR-r202/g__Ligilactobacillus.xlsx
+++ b/outputs-HGR-r202/g__Ligilactobacillus.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,7 +504,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>s__Ligilactobacillus murinus(reject)</t>
+          <t>s__Ligilactobacillus murinus</t>
         </is>
       </c>
     </row>
@@ -536,94 +536,94 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>s__Ligilactobacillus murinus(reject)</t>
+          <t>s__Ligilactobacillus murinus</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89050.fa</t>
+          <t>even_MAG-GUT89747.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2198105047225068</v>
+        <v>0.05891275139185454</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7056890041431944</v>
+        <v>0.3560441286776697</v>
       </c>
       <c r="D4" t="n">
-        <v>6.307636323701078e-14</v>
+        <v>2.288168498782134e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>0.07450049113423581</v>
+        <v>0.5850431199304528</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7056890041431944</v>
+        <v>0.5850431199304528</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>s__Ligilactobacillus murinus</t>
+          <t>s__Ligilactobacillus salivarius</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>s__Ligilactobacillus murinus</t>
+          <t>s__Ligilactobacillus salivarius</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89164.fa</t>
+          <t>even_MAG-GUT90694.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2198105047225068</v>
+        <v>0.07566027872842898</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7056890041431944</v>
+        <v>0.4069386851844449</v>
       </c>
       <c r="D5" t="n">
-        <v>6.307636323701078e-14</v>
+        <v>2.279788537419148e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07450049113423581</v>
+        <v>0.5174010360871033</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7056890041431944</v>
+        <v>0.5174010360871033</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>s__Ligilactobacillus murinus</t>
+          <t>s__Ligilactobacillus salivarius</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>s__Ligilactobacillus murinus</t>
+          <t>s__Ligilactobacillus salivarius</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89244.fa</t>
+          <t>even_MAG-GUT9692.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2155117008282734</v>
+        <v>0.1764444949330561</v>
       </c>
       <c r="C6" t="n">
-        <v>0.714665709409774</v>
+        <v>0.6663837176000655</v>
       </c>
       <c r="D6" t="n">
-        <v>5.997593594515306e-14</v>
+        <v>0.08389951373145396</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06982258976189255</v>
+        <v>0.0732722737354245</v>
       </c>
       <c r="F6" t="n">
-        <v>0.714665709409774</v>
+        <v>0.6663837176000655</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -631,422 +631,6 @@
         </is>
       </c>
       <c r="H6" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus murinus</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT89747.fa</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.05891275139185454</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3560441286776697</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.288168498782134e-14</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.5850431199304528</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.5850431199304528</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus salivarius</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus salivarius(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT89772.fa</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.2215046963161338</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7043566640778863</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6.41030905141087e-14</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.07413863960591577</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.7043566640778863</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus murinus</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus murinus</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT89816.fa</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.2198105047225068</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.7056890041431944</v>
-      </c>
-      <c r="D9" t="n">
-        <v>6.307636323701078e-14</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.07450049113423581</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.7056890041431944</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus murinus</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus murinus</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT89851.fa</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.2198105047225068</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7056890041431944</v>
-      </c>
-      <c r="D10" t="n">
-        <v>6.307636323701078e-14</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.07450049113423581</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.7056890041431944</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus murinus</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus murinus</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90143.fa</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.2198105047225068</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7056890041431944</v>
-      </c>
-      <c r="D11" t="n">
-        <v>6.307636323701078e-14</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.07450049113423581</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.7056890041431944</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus murinus</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus murinus</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90408.fa</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.2198105047225068</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7056890041431944</v>
-      </c>
-      <c r="D12" t="n">
-        <v>6.307636323701078e-14</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.07450049113423581</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.7056890041431944</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus murinus</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus murinus</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90442.fa</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.2155117008282734</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.714665709409774</v>
-      </c>
-      <c r="D13" t="n">
-        <v>5.997593594515306e-14</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.06982258976189255</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.714665709409774</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus murinus</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus murinus</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90615.fa</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.2198105047225068</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.7056890041431944</v>
-      </c>
-      <c r="D14" t="n">
-        <v>6.307636323701078e-14</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.07450049113423581</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.7056890041431944</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus murinus</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus murinus</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90683.fa</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.2198105047225068</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.7056890041431944</v>
-      </c>
-      <c r="D15" t="n">
-        <v>6.307636323701078e-14</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.07450049113423581</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.7056890041431944</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus murinus</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus murinus</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90694.fa</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.07566027872842898</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.4069386851844449</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2.279788537419148e-14</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.5174010360871033</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.5174010360871033</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus salivarius</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus salivarius(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90996.fa</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.2198105047225068</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.7056890041431944</v>
-      </c>
-      <c r="D17" t="n">
-        <v>6.307636323701078e-14</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.07450049113423581</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.7056890041431944</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus murinus</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus murinus</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91012.fa</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.2198105047225068</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.7056890041431944</v>
-      </c>
-      <c r="D18" t="n">
-        <v>6.307636323701078e-14</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.07450049113423581</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.7056890041431944</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus murinus</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus murinus</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91793.fa</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.2229295220573076</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.7049766724143066</v>
-      </c>
-      <c r="D19" t="n">
-        <v>6.496913964062177e-14</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.07209380552832069</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.7049766724143066</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus murinus</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
         <is>
           <t>s__Ligilactobacillus murinus</t>
         </is>

--- a/outputs-HGR-r202/g__Ligilactobacillus.xlsx
+++ b/outputs-HGR-r202/g__Ligilactobacillus.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,6 +498,789 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT33836.fa</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1732035695454257</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6732346957959114</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08187059997382093</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.07169113468484185</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.6732346957959114</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus murinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT34245.fa</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1740295524566599</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.673322700097579</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08236125356266141</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.07028649388309971</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.673322700097579</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus murinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT34540.fa</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.03941368559718348</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3037895063763451</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6396795512378474</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.01711725678862405</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6396795512378474</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus ruminis</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT34945.fa</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.03903957341553944</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3072237721877207</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6373007414844617</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.01643591291227815</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.6373007414844617</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus ruminis</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57416.fa</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1711571068288067</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6916343664718797</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.08075254256378181</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.05645598413553173</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.6916343664718797</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus murinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7285.fa</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.07738815390440271</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.414479515768819</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.278438379741558e-14</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5081323303267555</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.5081323303267555</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus salivarius</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89050.fa</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.2198105047225068</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7056890041431944</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.307636323701078e-14</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.07450049113423581</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.7056890041431944</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus murinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89164.fa</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.2198105047225068</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7056890041431944</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6.307636323701078e-14</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.07450049113423581</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.7056890041431944</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus murinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89244.fa</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.2155117008282734</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.714665709409774</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5.997593594515306e-14</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.06982258976189255</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.714665709409774</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus murinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89255.fa</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.07908874570209497</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4313683598866122</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.276857164235902e-14</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.48954289441127</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.48954289441127</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus salivarius</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89282.fa</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.07451128581547743</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.3964756916779039</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.280411613547281e-14</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5290130225065959</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.5290130225065959</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus salivarius</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89747.fa</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.05891275139185454</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.3560441286776697</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.288168498782134e-14</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5850431199304528</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.5850431199304528</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus salivarius</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89772.fa</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.2215046963161338</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7043566640778863</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6.41030905141087e-14</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.07413863960591577</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.7043566640778863</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus murinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89816.fa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.2198105047225068</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7056890041431944</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6.307636323701078e-14</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.07450049113423581</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.7056890041431944</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus murinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89833.fa</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.07465019490223314</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3989009988214066</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.280553700751078e-14</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5264488062763375</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.5264488062763375</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus salivarius</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89851.fa</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.2198105047225068</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7056890041431944</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6.307636323701078e-14</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.07450049113423581</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.7056890041431944</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus murinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90090.fa</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.08617273432821707</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4619574560020264</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.270041953048693e-14</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.4518698096697339</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.4619574560020264</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus murinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90143.fa</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.2198105047225068</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7056890041431944</v>
+      </c>
+      <c r="D20" t="n">
+        <v>6.307636323701078e-14</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.07450049113423581</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.7056890041431944</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus murinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90408.fa</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.2198105047225068</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7056890041431944</v>
+      </c>
+      <c r="D21" t="n">
+        <v>6.307636323701078e-14</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.07450049113423581</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.7056890041431944</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus murinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90442.fa</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.2155117008282734</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.714665709409774</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5.997593594515306e-14</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.06982258976189255</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.714665709409774</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus murinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90615.fa</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.2198105047225068</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7056890041431944</v>
+      </c>
+      <c r="D23" t="n">
+        <v>6.307636323701078e-14</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.07450049113423581</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.7056890041431944</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus murinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90683.fa</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.2198105047225068</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7056890041431944</v>
+      </c>
+      <c r="D24" t="n">
+        <v>6.307636323701078e-14</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.07450049113423581</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.7056890041431944</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus murinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90694.fa</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.07566027872842898</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.4069386851844449</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.279788537419148e-14</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.5174010360871033</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.5174010360871033</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus salivarius</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90996.fa</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.2198105047225068</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7056890041431944</v>
+      </c>
+      <c r="D26" t="n">
+        <v>6.307636323701078e-14</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.07450049113423581</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.7056890041431944</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus murinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91012.fa</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.2198105047225068</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.7056890041431944</v>
+      </c>
+      <c r="D27" t="n">
+        <v>6.307636323701078e-14</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.07450049113423581</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.7056890041431944</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus murinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91110.fa</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.07465019490223314</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.3989009988214066</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.280553700751078e-14</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.5264488062763375</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.5264488062763375</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus salivarius</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91793.fa</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.2229295220573076</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.7049766724143066</v>
+      </c>
+      <c r="D29" t="n">
+        <v>6.496913964062177e-14</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.07209380552832069</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.7049766724143066</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus murinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9688.fa</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.03895369474720531</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.3148960266740845</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.6345258517258286</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.01162442685288161</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.6345258517258286</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus ruminis</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9692.fa</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.1764444949330561</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.6663837176000655</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.08389951373145396</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0732722737354245</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.6663837176000655</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus murinus</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/outputs-HGR-r202/g__Ligilactobacillus.xlsx
+++ b/outputs-HGR-r202/g__Ligilactobacillus.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,11 @@
           <t>s__Ligilactobacillus murinus</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus murinus</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -524,6 +534,11 @@
           <t>s__Ligilactobacillus murinus</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus murinus</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -551,6 +566,11 @@
           <t>s__Ligilactobacillus murinus</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus murinus</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -578,6 +598,11 @@
           <t>s__Ligilactobacillus ruminis</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus ruminis</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -605,6 +630,11 @@
           <t>s__Ligilactobacillus ruminis</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus ruminis</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -632,6 +662,11 @@
           <t>s__Ligilactobacillus murinus</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus murinus</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -659,6 +694,11 @@
           <t>s__Ligilactobacillus salivarius</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus salivarius</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -686,6 +726,11 @@
           <t>s__Ligilactobacillus murinus</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus murinus</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -713,6 +758,11 @@
           <t>s__Ligilactobacillus murinus</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus murinus</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -740,6 +790,11 @@
           <t>s__Ligilactobacillus murinus</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus murinus</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -767,6 +822,11 @@
           <t>s__Ligilactobacillus salivarius</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus salivarius</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -794,6 +854,11 @@
           <t>s__Ligilactobacillus salivarius</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus salivarius</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -821,6 +886,11 @@
           <t>s__Ligilactobacillus salivarius</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus salivarius</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -848,6 +918,11 @@
           <t>s__Ligilactobacillus murinus</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus murinus</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -875,6 +950,11 @@
           <t>s__Ligilactobacillus murinus</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus murinus</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -902,6 +982,11 @@
           <t>s__Ligilactobacillus salivarius</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus salivarius</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -929,6 +1014,11 @@
           <t>s__Ligilactobacillus murinus</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus murinus</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -956,6 +1046,11 @@
           <t>s__Ligilactobacillus murinus</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus murinus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -983,6 +1078,11 @@
           <t>s__Ligilactobacillus murinus</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus murinus</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1010,6 +1110,11 @@
           <t>s__Ligilactobacillus murinus</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus murinus</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1037,6 +1142,11 @@
           <t>s__Ligilactobacillus murinus</t>
         </is>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus murinus</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1064,6 +1174,11 @@
           <t>s__Ligilactobacillus murinus</t>
         </is>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus murinus</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1091,6 +1206,11 @@
           <t>s__Ligilactobacillus murinus</t>
         </is>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus murinus</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1118,6 +1238,11 @@
           <t>s__Ligilactobacillus salivarius</t>
         </is>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus salivarius</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1145,6 +1270,11 @@
           <t>s__Ligilactobacillus murinus</t>
         </is>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus murinus</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1172,6 +1302,11 @@
           <t>s__Ligilactobacillus murinus</t>
         </is>
       </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus murinus</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1199,6 +1334,11 @@
           <t>s__Ligilactobacillus salivarius</t>
         </is>
       </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus salivarius</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1226,6 +1366,11 @@
           <t>s__Ligilactobacillus murinus</t>
         </is>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus murinus</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1253,6 +1398,11 @@
           <t>s__Ligilactobacillus ruminis</t>
         </is>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus ruminis</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1276,6 +1426,11 @@
         <v>0.6663837176000655</v>
       </c>
       <c r="G31" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus murinus</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
         <is>
           <t>s__Ligilactobacillus murinus</t>
         </is>

--- a/outputs-HGR-r202/g__Ligilactobacillus.xlsx
+++ b/outputs-HGR-r202/g__Ligilactobacillus.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,87 +479,87 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7285.fa</t>
+          <t>even_MAG-GUT33836.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.07738815390440271</v>
+        <v>0.1732035695454257</v>
       </c>
       <c r="C2" t="n">
-        <v>0.414479515768819</v>
+        <v>0.6732346957959114</v>
       </c>
       <c r="D2" t="n">
-        <v>2.278438379741558e-14</v>
+        <v>0.08187059997382093</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5081323303267555</v>
+        <v>0.07169113468484185</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5081323303267555</v>
+        <v>0.6732346957959114</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>s__Ligilactobacillus salivarius</t>
+          <t>s__Ligilactobacillus murinus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>s__Ligilactobacillus salivarius</t>
+          <t>s__Ligilactobacillus murinus</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89255.fa</t>
+          <t>even_MAG-GUT34245.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07908874570209497</v>
+        <v>0.1740295524566599</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4313683598866122</v>
+        <v>0.673322700097579</v>
       </c>
       <c r="D3" t="n">
-        <v>2.276857164235902e-14</v>
+        <v>0.08236125356266141</v>
       </c>
       <c r="E3" t="n">
-        <v>0.48954289441127</v>
+        <v>0.07028649388309971</v>
       </c>
       <c r="F3" t="n">
-        <v>0.48954289441127</v>
+        <v>0.673322700097579</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>s__Ligilactobacillus salivarius</t>
+          <t>s__Ligilactobacillus murinus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>s__Ligilactobacillus salivarius</t>
+          <t>s__Ligilactobacillus murinus</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89282.fa</t>
+          <t>even_MAG-GUT7285.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07451128581547743</v>
+        <v>0.07738815390440271</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3964756916779039</v>
+        <v>0.414479515768819</v>
       </c>
       <c r="D4" t="n">
-        <v>2.280411613547281e-14</v>
+        <v>2.278438379741558e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5290130225065959</v>
+        <v>0.5081323303267555</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5290130225065959</v>
+        <v>0.5081323303267555</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -575,23 +575,23 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89747.fa</t>
+          <t>even_MAG-GUT89255.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05891275139185454</v>
+        <v>0.07908874570209497</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3560441286776697</v>
+        <v>0.4313683598866122</v>
       </c>
       <c r="D5" t="n">
-        <v>2.288168498782134e-14</v>
+        <v>2.276857164235902e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5850431199304528</v>
+        <v>0.48954289441127</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5850431199304528</v>
+        <v>0.48954289441127</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -607,23 +607,23 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89833.fa</t>
+          <t>even_MAG-GUT89282.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07465019490223314</v>
+        <v>0.07451128581547743</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3989009988214066</v>
+        <v>0.3964756916779039</v>
       </c>
       <c r="D6" t="n">
-        <v>2.280553700751078e-14</v>
+        <v>2.280411613547281e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5264488062763375</v>
+        <v>0.5290130225065959</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5264488062763375</v>
+        <v>0.5290130225065959</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -639,55 +639,55 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90090.fa</t>
+          <t>even_MAG-GUT89747.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.08617273432821707</v>
+        <v>0.05891275139185454</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4619574560020264</v>
+        <v>0.3560441286776697</v>
       </c>
       <c r="D7" t="n">
-        <v>2.270041953048693e-14</v>
+        <v>2.288168498782134e-14</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4518698096697339</v>
+        <v>0.5850431199304528</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4619574560020264</v>
+        <v>0.5850431199304528</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>s__Ligilactobacillus murinus</t>
+          <t>s__Ligilactobacillus salivarius</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>s__Ligilactobacillus murinus</t>
+          <t>s__Ligilactobacillus salivarius</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90694.fa</t>
+          <t>even_MAG-GUT89833.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.07566027872842898</v>
+        <v>0.07465019490223314</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4069386851844449</v>
+        <v>0.3989009988214066</v>
       </c>
       <c r="D8" t="n">
-        <v>2.279788537419148e-14</v>
+        <v>2.280553700751078e-14</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5174010360871033</v>
+        <v>0.5264488062763375</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5174010360871033</v>
+        <v>0.5264488062763375</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -703,30 +703,94 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT90090.fa</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.08617273432821707</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4619574560020264</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.270041953048693e-14</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4518698096697339</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.4619574560020264</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus murinus</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus murinus(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90694.fa</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.07566027872842898</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4069386851844449</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.279788537419148e-14</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5174010360871033</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.5174010360871033</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus salivarius</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus salivarius</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT91110.fa</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B11" t="n">
         <v>0.07465019490223314</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C11" t="n">
         <v>0.3989009988214066</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D11" t="n">
         <v>2.280553700751078e-14</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E11" t="n">
         <v>0.5264488062763375</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F11" t="n">
         <v>0.5264488062763375</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus salivarius</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>s__Ligilactobacillus salivarius</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>s__Ligilactobacillus salivarius</t>
         </is>
